--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4746C93-A5A4-45FA-8307-D32BF1A46936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F8A9F-E46E-4BCC-86A3-1C29E3E9D206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Botteau Mathis</t>
+  </si>
+  <si>
+    <t>Création des maquettes mobiles pour la lecture des livres, accueil, details, et gestion des tags</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1027,7 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1955,7 +1958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2011,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 45 minutes</v>
+        <v>0 jours 3 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2023,15 +2026,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2086,10 +2089,21 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="43"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="39">
+        <v>45369</v>
+      </c>
+      <c r="C8" s="35">
+        <v>2</v>
+      </c>
+      <c r="D8" s="43">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -8141,11 +8155,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8153,7 +8167,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8262,7 +8276,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>3.125E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F8A9F-E46E-4BCC-86A3-1C29E3E9D206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F28733-4069-44A9-AE6F-0D7EED52D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Création des maquettes mobiles pour la lecture des livres, accueil, details, et gestion des tags</t>
+  </si>
+  <si>
+    <t>Maladie</t>
+  </si>
+  <si>
+    <t>Mise a niveau du github</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1051,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,7 +1964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2017,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 0 minutes</v>
+        <v>0 jours 6 heurs 9 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2026,15 +2032,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2117,11 +2123,21 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="48"/>
+      <c r="B9" s="40">
+        <v>45376</v>
+      </c>
+      <c r="C9" s="36">
+        <v>3</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="20"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -2134,10 +2150,19 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="39">
+        <v>45397</v>
+      </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="43"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="43">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -8259,7 +8284,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8267,7 +8292,7 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8276,7 +8301,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.125</v>
+        <v>0.13194444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8298,18 +8323,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8575,6 +8588,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8584,20 +8609,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8615,4 +8626,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F28733-4069-44A9-AE6F-0D7EED52D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573C7728-2834-433A-A89A-4AE66A9C699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Mise a niveau du github</t>
+  </si>
+  <si>
+    <t>Création de la page principale (barre de navigation, barre de recherche, affichage des livres par catégorie</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1036,7 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>0.21180555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1962,7 +1965,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
@@ -2017,7 +2020,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 9 minutes</v>
+        <v>0 jours 9 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2032,15 +2035,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>370</v>
+        <v>540</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2174,13 +2177,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="48"/>
+      <c r="B11" s="40">
+        <v>45397</v>
+      </c>
+      <c r="C11" s="36">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44">
+        <v>50</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -8180,11 +8193,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8192,7 +8205,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>9.375E-2</v>
+        <v>0.21180555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8301,7 +8314,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.13194444444444445</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8323,6 +8336,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8588,18 +8613,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8609,6 +8622,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8626,18 +8653,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573C7728-2834-433A-A89A-4AE66A9C699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C093969-855C-4DF4-B0F2-BDF605570617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Création de la page principale (barre de navigation, barre de recherche, affichage des livres par catégorie</t>
+  </si>
+  <si>
+    <t>Installation de node.js en portable</t>
+  </si>
+  <si>
+    <t>L'api envoie automatiquement tout les fichiers epub d'un dossier dans la db, puis grace a une route on peut les récupérer un à un.</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1042,7 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21180555555555555</c:v>
+                  <c:v>0.25347222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1054,7 +1060,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9444444444444441E-3</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,7 +2026,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 0 minutes</v>
+        <v>0 jours 10 heurs 30 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2035,15 +2041,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2206,10 +2212,19 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="39">
+        <v>45411</v>
+      </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="43"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="43">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2221,13 +2236,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="48"/>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -8193,7 +8216,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8205,7 +8228,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.21180555555555555</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8297,7 +8320,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8305,7 +8328,7 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8314,7 +8337,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8336,18 +8359,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8613,6 +8624,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8622,20 +8645,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8653,4 +8662,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C093969-855C-4DF4-B0F2-BDF605570617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E0531-413A-4932-9590-E38AED2ABDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>L'api envoie automatiquement tout les fichiers epub d'un dossier dans la db, puis grace a une route on peut les récupérer un à un.</t>
+  </si>
+  <si>
+    <t>Commencement d'envoie de requete de l'app mobile vers l'api</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1045,7 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25347222222222221</c:v>
+                  <c:v>0.31597222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1973,7 +1976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2029,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 30 minutes</v>
+        <v>0 jours 12 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2041,15 +2044,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2240,7 +2243,7 @@
       <c r="A13" s="18"/>
       <c r="B13" s="40"/>
       <c r="C13" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="44">
         <v>0</v>
@@ -2265,8 +2268,15 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
+      <c r="D14" s="43">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>24</v>
@@ -8216,11 +8226,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8228,7 +8238,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.25347222222222221</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8337,7 +8347,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8359,6 +8369,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8624,18 +8646,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8645,6 +8655,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8662,18 +8686,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E0531-413A-4932-9590-E38AED2ABDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C62076C-BCFD-48A9-BDC5-E409328BCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Commencement d'envoie de requete de l'app mobile vers l'api</t>
+  </si>
+  <si>
+    <t>Application se connecte a l'api, lis le epub, prend le titre et l'affiche</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1048,7 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31597222222222221</c:v>
+                  <c:v>0.44097222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1976,7 +1979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2032,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 12 heurs 0 minutes</v>
+        <v>0 jours 15 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2044,7 +2047,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2241,7 +2244,9 @@
     </row>
     <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="40">
+        <v>45411</v>
+      </c>
       <c r="C13" s="36">
         <v>2</v>
       </c>
@@ -2266,7 +2271,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="39">
+        <v>45411</v>
+      </c>
       <c r="C14" s="35"/>
       <c r="D14" s="43">
         <v>30</v>
@@ -2290,11 +2297,21 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="48"/>
+      <c r="B15" s="40">
+        <v>45418</v>
+      </c>
+      <c r="C15" s="36">
+        <v>3</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="M15" t="s">
         <v>25</v>
@@ -8226,7 +8243,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8238,7 +8255,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.31597222222222221</v>
+        <v>0.44097222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8347,7 +8364,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8369,18 +8386,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8646,6 +8651,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8655,20 +8672,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8686,4 +8689,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C62076C-BCFD-48A9-BDC5-E409328BCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C7F858-0077-41B1-9D62-FC56E5DC0015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Application se connecte a l'api, lis le epub, prend le titre et l'affiche</t>
+  </si>
+  <si>
+    <t>J'ai eu des problèmes en ce qui concerne l'affichage automatique des titres et l'affichage des image binaire en flux de mémoire</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1051,7 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44097222222222221</c:v>
+                  <c:v>0.56597222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1979,7 +1982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2035,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 0 minutes</v>
+        <v>0 jours 18 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2047,7 +2050,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2055,7 +2058,7 @@
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2323,11 +2326,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="39">
+        <v>45425</v>
+      </c>
+      <c r="C16" s="35">
+        <v>3</v>
+      </c>
+      <c r="D16" s="43">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="O16">
         <v>40</v>
@@ -8243,7 +8257,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8255,7 +8269,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.44097222222222221</v>
+        <v>0.56597222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8364,7 +8378,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8386,6 +8400,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8651,18 +8677,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8672,6 +8686,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8689,18 +8717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Journal-de-Travail_BotteauMathis.xlsx
+++ b/Documents/Journal-de-Travail_BotteauMathis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd47qky\Documents\GitHub\P_AppMobile\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C7F858-0077-41B1-9D62-FC56E5DC0015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E76681-1795-4E2A-9F88-82E26F57F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>J'ai eu des problèmes en ce qui concerne l'affichage automatique des titres et l'affichage des image binaire en flux de mémoire</t>
+  </si>
+  <si>
+    <t>J'ai régler mes problèmes de sécurité, j'ai afficher en scrollView mes images avec leut titre est un boutonn details, et j'ai afficher l'auteur du livre dans un pages a part spécifiquement pour lui</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56597222222222221</c:v>
+                  <c:v>0.69097222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1982,7 +1985,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2038,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 18 heurs 0 minutes</v>
+        <v>0 jours 21 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2050,7 +2053,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2058,7 +2061,7 @@
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>1080</v>
+        <v>1260</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2347,13 +2350,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="48"/>
+      <c r="B17" s="40">
+        <v>45425</v>
+      </c>
+      <c r="C17" s="36">
+        <v>3</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="O17">
         <v>45</v>
@@ -8257,7 +8270,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8269,7 +8282,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.56597222222222221</v>
+        <v>0.69097222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8378,7 +8391,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8400,18 +8413,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8677,6 +8678,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8686,20 +8699,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8717,4 +8716,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>